--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6897F7-C9BC-4D16-AF3E-2B396420D25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10386740-30AE-45EC-B3F7-8DF8058A0DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="10" sheetId="1" r:id="rId1"/>
+    <sheet name="100" sheetId="2" r:id="rId2"/>
+    <sheet name="1000" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t>First</t>
   </si>
@@ -429,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFABCB-B013-4245-BF63-613FBFCF1254}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -606,4 +608,362 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FB320D-C578-4CA1-BCE7-47B5E47FC8FF}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="e">
+        <f>AVERAGE(B3:F3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="e">
+        <f>AVERAGE(B12:F12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="e">
+        <f>AVERAGE(B3:F3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="e">
+        <f>AVERAGE(B12:F12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10386740-30AE-45EC-B3F7-8DF8058A0DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB3CC7-E625-4F80-9B52-48671D6AF9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>First</t>
   </si>
@@ -71,13 +71,22 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Filter n sort</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Filter(Completion)</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Cache nav</t>
+  </si>
+  <si>
+    <t>Calendar nav</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFABCB-B013-4245-BF63-613FBFCF1254}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:G17"/>
+      <selection activeCell="F17" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -443,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -463,146 +472,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
+      <c r="B3">
+        <v>104.96850000000001</v>
+      </c>
+      <c r="C3">
+        <v>102.5295</v>
+      </c>
+      <c r="D3">
+        <v>106.70699999999999</v>
+      </c>
+      <c r="E3">
+        <v>98.826899999999995</v>
+      </c>
+      <c r="F3">
+        <v>96.493600000000001</v>
+      </c>
+      <c r="G3">
         <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+        <v>101.90509999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>11.3344</v>
+      </c>
+      <c r="C4">
+        <v>9.9745000000000008</v>
+      </c>
+      <c r="D4">
+        <v>11.192299999999999</v>
+      </c>
+      <c r="E4">
+        <v>9.4846000000000004</v>
+      </c>
+      <c r="F4">
+        <v>11.495200000000001</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>10.696199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>49.196199999999997</v>
+      </c>
+      <c r="C5">
+        <v>94.062799999999996</v>
+      </c>
+      <c r="D5">
+        <v>63.547499999999999</v>
+      </c>
+      <c r="E5">
+        <v>52.1631</v>
+      </c>
+      <c r="F5">
+        <v>104.84869999999999</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>72.763659999999987</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>162.39230000000001</v>
+      </c>
+      <c r="C6">
+        <v>97.413700000000006</v>
+      </c>
+      <c r="D6">
+        <v>144.47450000000001</v>
+      </c>
+      <c r="E6">
+        <v>95.7102</v>
+      </c>
+      <c r="F6">
+        <v>92.758600000000001</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B6:F6)</f>
+        <v>118.54986000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>45.877600000000001</v>
+      </c>
+      <c r="C7">
+        <v>76.8523</v>
+      </c>
+      <c r="D7">
+        <v>44.173000000000002</v>
+      </c>
+      <c r="E7">
+        <v>97.523899999999998</v>
+      </c>
+      <c r="F7">
+        <v>43.866999999999997</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>61.658759999999994</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>36.914200000000001</v>
+      </c>
+      <c r="C8">
+        <v>55.429400000000001</v>
+      </c>
+      <c r="D8">
+        <v>57.999000000000002</v>
+      </c>
+      <c r="E8">
+        <v>58.599299999999999</v>
+      </c>
+      <c r="F8">
+        <v>59.862299999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="0">AVERAGE(B8:F8)</f>
+        <v>53.760839999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>16.368400000000001</v>
+      </c>
+      <c r="C9">
+        <v>25.2179</v>
+      </c>
+      <c r="D9">
+        <v>31.716799999999999</v>
+      </c>
+      <c r="E9">
+        <v>28.400300000000001</v>
+      </c>
+      <c r="F9">
+        <v>24.727</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>25.286080000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="C10">
+        <v>1.2242999999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.167</v>
+      </c>
+      <c r="E10">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="F10">
+        <v>1.8031999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.1421800000000002</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="C11">
+        <v>1.1332</v>
+      </c>
+      <c r="D11">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.48309999999999997</v>
+      </c>
+      <c r="F11">
+        <v>1.4401999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.91893999999999987</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>31589920</v>
+      </c>
+      <c r="C15">
+        <v>31637304</v>
+      </c>
+      <c r="D15">
+        <v>31653400</v>
+      </c>
+      <c r="E15">
+        <v>29576200</v>
+      </c>
+      <c r="F15">
+        <v>31694432</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>31230251.199999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>36676440</v>
+      </c>
+      <c r="C16">
+        <v>38350616</v>
+      </c>
+      <c r="D16">
+        <v>37980128</v>
+      </c>
+      <c r="E16">
+        <v>37272728</v>
+      </c>
+      <c r="F16">
+        <v>37078248</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>37471632</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>45380320</v>
+      </c>
+      <c r="C17">
+        <v>34226264</v>
+      </c>
+      <c r="D17">
+        <v>46246952</v>
+      </c>
+      <c r="E17">
+        <v>45299296</v>
+      </c>
+      <c r="F17">
+        <v>45672256</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>43365017.600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>34095256</v>
+      </c>
+      <c r="C18">
+        <v>35453680</v>
+      </c>
+      <c r="D18">
+        <v>35867040</v>
+      </c>
+      <c r="E18">
+        <v>33118104</v>
+      </c>
+      <c r="F18">
+        <v>34384032</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>34583622.399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>38702880</v>
+      </c>
+      <c r="C19">
+        <v>43938816</v>
+      </c>
+      <c r="D19">
+        <v>37266336</v>
+      </c>
+      <c r="E19">
+        <v>36233864</v>
+      </c>
+      <c r="F19">
+        <v>35866048</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>38401588.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>28441280</v>
+      </c>
+      <c r="C20">
+        <v>45191848</v>
+      </c>
+      <c r="D20">
+        <v>41015208</v>
+      </c>
+      <c r="E20">
+        <v>40933832</v>
+      </c>
+      <c r="F20">
+        <v>43738656</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>39864164.799999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>41874288</v>
+      </c>
+      <c r="C21">
+        <v>47997800</v>
+      </c>
+      <c r="D21">
+        <v>43613664</v>
+      </c>
+      <c r="E21">
+        <v>40779576</v>
+      </c>
+      <c r="F21">
+        <v>42375880</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>43328241.600000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>34560066</v>
+      </c>
+      <c r="C22">
+        <v>31596282</v>
+      </c>
+      <c r="D22">
+        <v>29622140</v>
+      </c>
+      <c r="E22">
+        <v>31574914</v>
+      </c>
+      <c r="F22">
+        <v>33533820</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>32177444.399999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>35770952</v>
+      </c>
+      <c r="C23">
+        <v>33023608</v>
+      </c>
+      <c r="D23">
+        <v>31180592</v>
+      </c>
+      <c r="E23">
+        <v>32934576</v>
+      </c>
+      <c r="F23">
+        <v>34877264</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>33557398.399999999</v>
       </c>
     </row>
   </sheetData>
@@ -612,17 +939,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FB320D-C578-4CA1-BCE7-47B5E47FC8FF}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -642,146 +972,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
+      <c r="B3">
+        <v>525.12300000000005</v>
+      </c>
+      <c r="C3">
+        <v>379.55720000000002</v>
+      </c>
+      <c r="D3">
+        <v>425.2645</v>
+      </c>
+      <c r="E3">
+        <v>406.423</v>
+      </c>
+      <c r="F3">
+        <v>355.73630000000003</v>
+      </c>
+      <c r="G3">
         <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+        <v>431.14057500000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>15.8673</v>
+      </c>
+      <c r="C4">
+        <v>6.3819999999999997</v>
+      </c>
+      <c r="D4">
+        <v>8.3559999999999999</v>
+      </c>
+      <c r="E4">
+        <v>17.7197</v>
+      </c>
+      <c r="F4">
+        <v>3.8338999999999999</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>12.081250000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>29.982900000000001</v>
+      </c>
+      <c r="C5">
+        <v>39.135599999999997</v>
+      </c>
+      <c r="D5">
+        <v>43.514099999999999</v>
+      </c>
+      <c r="E5">
+        <v>45.408000000000001</v>
+      </c>
+      <c r="F5">
+        <v>43.145899999999997</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>39.510149999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>377.5213</v>
+      </c>
+      <c r="C6">
+        <v>293.77910000000003</v>
+      </c>
+      <c r="D6">
+        <v>339.24079999999998</v>
+      </c>
+      <c r="E6">
+        <v>295.93079999999998</v>
+      </c>
+      <c r="F6">
+        <v>302.97039999999998</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B6:F6)</f>
+        <v>326.61800000000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>236.72499999999999</v>
+      </c>
+      <c r="C7">
+        <v>236.8408</v>
+      </c>
+      <c r="D7">
+        <v>213.15289999999999</v>
+      </c>
+      <c r="E7">
+        <v>330.78359999999998</v>
+      </c>
+      <c r="F7">
+        <v>301.40440000000001</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>254.37557499999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>290.77379999999999</v>
+      </c>
+      <c r="C8">
+        <v>357.06880000000001</v>
+      </c>
+      <c r="D8">
+        <v>466.33440000000002</v>
+      </c>
+      <c r="E8">
+        <v>360.89089999999999</v>
+      </c>
+      <c r="F8">
+        <v>379.10289999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="0">AVERAGE(B8:F8)</f>
+        <v>368.766975</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>123.2111</v>
+      </c>
+      <c r="C9">
+        <v>56.892400000000002</v>
+      </c>
+      <c r="D9">
+        <v>266.43709999999999</v>
+      </c>
+      <c r="E9">
+        <v>90.368300000000005</v>
+      </c>
+      <c r="F9">
+        <v>274.41550000000001</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>162.26488000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>53.125399999999999</v>
+      </c>
+      <c r="C10">
+        <v>35.530749999999998</v>
+      </c>
+      <c r="D10">
+        <v>46.887</v>
+      </c>
+      <c r="E10">
+        <v>42.348300000000002</v>
+      </c>
+      <c r="F10">
+        <v>46.054600000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>44.789209999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2.0247000000000002</v>
+      </c>
+      <c r="C11">
+        <v>1.0388999999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.5296000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.59</v>
+      </c>
+      <c r="F11">
+        <v>1.6912</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.5748800000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>37867440</v>
+      </c>
+      <c r="C15">
+        <v>35713640</v>
+      </c>
+      <c r="D15">
+        <v>35668232</v>
+      </c>
+      <c r="E15">
+        <v>35939280</v>
+      </c>
+      <c r="F15">
+        <v>35630264</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>36193011.200000003</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>45511680</v>
+      </c>
+      <c r="C16">
+        <v>156990576</v>
+      </c>
+      <c r="D16">
+        <v>40756016</v>
+      </c>
+      <c r="E16">
+        <v>44734632</v>
+      </c>
+      <c r="F16">
+        <v>35871784</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>64772937.600000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>89776000</v>
+      </c>
+      <c r="C17">
+        <v>126241976</v>
+      </c>
+      <c r="D17">
+        <v>127189456</v>
+      </c>
+      <c r="E17">
+        <v>146083704</v>
+      </c>
+      <c r="F17">
+        <v>97812976</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>117420822.40000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>46326160</v>
+      </c>
+      <c r="C18">
+        <v>202090496</v>
+      </c>
+      <c r="D18">
+        <v>52843496</v>
+      </c>
+      <c r="E18">
+        <v>57512904</v>
+      </c>
+      <c r="F18">
+        <v>52795952</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>82313801.599999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>161745224</v>
+      </c>
+      <c r="C19">
+        <v>198000112</v>
+      </c>
+      <c r="D19">
+        <v>91362088</v>
+      </c>
+      <c r="E19">
+        <v>64852064</v>
+      </c>
+      <c r="F19">
+        <v>42110576</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>111614012.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>54643816</v>
+      </c>
+      <c r="C20">
+        <v>53835320</v>
+      </c>
+      <c r="D20">
+        <v>53785488</v>
+      </c>
+      <c r="E20">
+        <v>53753000</v>
+      </c>
+      <c r="F20">
+        <v>57759144</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>54004406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>49860096</v>
+      </c>
+      <c r="C21">
+        <v>104452032</v>
+      </c>
+      <c r="D21">
+        <v>59904512</v>
+      </c>
+      <c r="E21">
+        <v>62011408</v>
+      </c>
+      <c r="F21">
+        <v>55867888</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>66419187.200000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>50569136</v>
+      </c>
+      <c r="C22">
+        <v>50064854</v>
+      </c>
+      <c r="D22">
+        <v>47094993</v>
+      </c>
+      <c r="E22">
+        <v>50623958</v>
+      </c>
+      <c r="F22">
+        <v>48407213</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>49352030.799999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>57674240</v>
+      </c>
+      <c r="C23">
+        <v>57152400</v>
+      </c>
+      <c r="D23">
+        <v>54493320</v>
+      </c>
+      <c r="E23">
+        <v>58041640</v>
+      </c>
+      <c r="F23">
+        <v>55604528</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>56593225.600000001</v>
       </c>
     </row>
   </sheetData>
@@ -791,17 +1439,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -821,146 +1472,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
+      <c r="B3">
+        <v>1779.2546</v>
+      </c>
+      <c r="C3">
+        <v>1615.8913</v>
+      </c>
+      <c r="D3">
+        <v>1636.6994999999999</v>
+      </c>
+      <c r="E3">
+        <v>1731.5659000000001</v>
+      </c>
+      <c r="F3">
+        <v>1797.0310999999999</v>
+      </c>
+      <c r="G3">
         <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+        <v>1729.6170999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>54.246499999999997</v>
+      </c>
+      <c r="C4">
+        <v>140.37139999999999</v>
+      </c>
+      <c r="D4">
+        <v>40.054400000000001</v>
+      </c>
+      <c r="E4">
+        <v>44.132100000000001</v>
+      </c>
+      <c r="F4">
+        <v>48.796100000000003</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>54.246499999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>102.15349999999999</v>
+      </c>
+      <c r="C5">
+        <v>106.5265</v>
+      </c>
+      <c r="D5">
+        <v>166.74289999999999</v>
+      </c>
+      <c r="E5">
+        <v>185.9659</v>
+      </c>
+      <c r="F5">
+        <v>105.2385</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>102.15349999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>1230.5903000000001</v>
+      </c>
+      <c r="C6">
+        <v>1272.1286</v>
+      </c>
+      <c r="D6">
+        <v>1324.5736999999999</v>
+      </c>
+      <c r="E6">
+        <v>1260.2701999999999</v>
+      </c>
+      <c r="F6">
+        <v>1267.0229999999999</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B6:F6)</f>
+        <v>1230.5903000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>725.07809999999995</v>
+      </c>
+      <c r="C7">
+        <v>616.99009999999998</v>
+      </c>
+      <c r="D7">
+        <v>645.18979999999999</v>
+      </c>
+      <c r="E7">
+        <v>741.04949999999997</v>
+      </c>
+      <c r="F7">
+        <v>611.71140000000003</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>725.07809999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1316.8344</v>
+      </c>
+      <c r="C8">
+        <v>1226.9485999999999</v>
+      </c>
+      <c r="D8">
+        <v>1368.4902</v>
+      </c>
+      <c r="E8">
+        <v>1535.7425000000001</v>
+      </c>
+      <c r="F8">
+        <v>1716.7384999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="0">AVERAGE(B8:F8)</f>
+        <v>1362.003925</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>348.51900000000001</v>
+      </c>
+      <c r="C9">
+        <v>313.50850000000003</v>
+      </c>
+      <c r="D9">
+        <v>356.22699999999998</v>
+      </c>
+      <c r="E9">
+        <v>365.1003</v>
+      </c>
+      <c r="F9">
+        <v>332.6173</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>343.19441999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>207.3066</v>
+      </c>
+      <c r="C10">
+        <v>147.27359999999999</v>
+      </c>
+      <c r="D10">
+        <v>201.13829999999999</v>
+      </c>
+      <c r="E10">
+        <v>175.77760000000001</v>
+      </c>
+      <c r="F10">
+        <v>181.5994</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(B10:F10)</f>
+        <v>182.61909999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1.7854000000000001</v>
+      </c>
+      <c r="C11">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="D11">
+        <v>4.67</v>
+      </c>
+      <c r="E11">
+        <v>9.3806999999999992</v>
+      </c>
+      <c r="F11">
+        <v>2.3466</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>4.63734</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>122297184</v>
+      </c>
+      <c r="C15">
+        <v>122417152</v>
+      </c>
+      <c r="D15">
+        <v>126403584</v>
+      </c>
+      <c r="E15">
+        <v>122268160</v>
+      </c>
+      <c r="F15">
+        <v>124784648</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>123096339.2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>180021760</v>
+      </c>
+      <c r="C16">
+        <v>233583736</v>
+      </c>
+      <c r="D16">
+        <v>193352208</v>
+      </c>
+      <c r="E16">
+        <v>231885832</v>
+      </c>
+      <c r="F16">
+        <v>237642944</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>215297296</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>303773184</v>
+      </c>
+      <c r="C17">
+        <v>369007104</v>
+      </c>
+      <c r="D17">
+        <v>289406976</v>
+      </c>
+      <c r="E17">
+        <v>286490128</v>
+      </c>
+      <c r="F17">
+        <v>298338816</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>309403241.60000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>283078744</v>
+      </c>
+      <c r="C18">
+        <v>244123944</v>
+      </c>
+      <c r="D18">
+        <v>253677864</v>
+      </c>
+      <c r="E18">
+        <v>251118960</v>
+      </c>
+      <c r="F18">
+        <v>259754176</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>258350737.59999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>318133248</v>
+      </c>
+      <c r="C19">
+        <v>491115520</v>
+      </c>
+      <c r="D19">
+        <v>385249408</v>
+      </c>
+      <c r="E19">
+        <v>269841840</v>
+      </c>
+      <c r="F19">
+        <v>373262352</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>367520473.60000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>253739008</v>
+      </c>
+      <c r="C20">
+        <v>262789720</v>
+      </c>
+      <c r="D20">
+        <v>313455120</v>
+      </c>
+      <c r="E20">
+        <v>273580024</v>
+      </c>
+      <c r="F20">
+        <v>249388544</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>275890968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>262129064</v>
+      </c>
+      <c r="C21">
+        <v>378142288</v>
+      </c>
+      <c r="D21">
+        <v>339564024</v>
+      </c>
+      <c r="E21">
+        <v>355408384</v>
+      </c>
+      <c r="F21">
+        <v>369243648</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>340897481.60000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>200444348</v>
+      </c>
+      <c r="C22">
+        <v>210860128</v>
+      </c>
+      <c r="D22">
+        <v>203085093</v>
+      </c>
+      <c r="E22">
+        <v>236436280</v>
+      </c>
+      <c r="F22">
+        <v>227680546</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(B22:F22)</f>
+        <v>215701279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>209244672</v>
+      </c>
+      <c r="C23">
+        <v>292361016</v>
+      </c>
+      <c r="D23">
+        <v>225791224</v>
+      </c>
+      <c r="E23">
+        <v>224477472</v>
+      </c>
+      <c r="F23">
+        <v>223724104</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>235119697.59999999</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10386740-30AE-45EC-B3F7-8DF8058A0DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F850ED65-C179-4635-9E9A-D040FFF20E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>First</t>
   </si>
@@ -71,13 +71,22 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Filter n sort</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Filter(Completion)</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Cache nav</t>
+  </si>
+  <si>
+    <t>Calendar nav</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFABCB-B013-4245-BF63-613FBFCF1254}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:G17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -443,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -463,146 +472,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
-        <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>98.59</v>
+      </c>
+      <c r="C3">
+        <v>107.1773</v>
+      </c>
+      <c r="D3">
+        <v>100.639</v>
+      </c>
+      <c r="E3">
+        <v>96.840299999999999</v>
+      </c>
+      <c r="F3">
+        <v>99.524699999999996</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(B3:F3)</f>
+        <v>100.68066</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>9.4489999999999998</v>
+      </c>
+      <c r="C4">
+        <v>11.9681</v>
+      </c>
+      <c r="D4">
+        <v>5.1841999999999997</v>
+      </c>
+      <c r="E4">
+        <v>8.1637000000000004</v>
+      </c>
+      <c r="F4">
+        <v>11.9107</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>9.3351399999999991</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
+      <c r="B5">
+        <v>3078.0617000000002</v>
+      </c>
+      <c r="C5">
+        <v>3082.5697</v>
+      </c>
+      <c r="D5">
+        <v>3083.1516999999999</v>
+      </c>
+      <c r="E5">
+        <v>3079.98</v>
+      </c>
+      <c r="F5">
+        <v>3076.5374000000002</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3080.0601000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
+      <c r="B6">
+        <v>116.7492</v>
+      </c>
+      <c r="C6">
+        <v>112.6986</v>
+      </c>
+      <c r="D6">
+        <v>96.983599999999996</v>
+      </c>
+      <c r="E6">
+        <v>149.25700000000001</v>
+      </c>
+      <c r="F6">
+        <v>93.847499999999997</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>113.90718</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
+      <c r="B7">
+        <v>3059.3649</v>
+      </c>
+      <c r="C7">
+        <v>3059.2930000000001</v>
+      </c>
+      <c r="D7">
+        <v>3059.0131999999999</v>
+      </c>
+      <c r="E7">
+        <v>3060.6028999999999</v>
+      </c>
+      <c r="F7">
+        <v>3057.5668000000001</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3059.1681600000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>59.7346</v>
+      </c>
+      <c r="C8">
+        <v>139.79230000000001</v>
+      </c>
+      <c r="D8">
+        <v>70.400700000000001</v>
+      </c>
+      <c r="E8">
+        <v>85.078699999999998</v>
+      </c>
+      <c r="F8">
+        <v>59.734299999999998</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>88.751575000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>32.671999999999997</v>
+      </c>
+      <c r="C9">
+        <v>32.461500000000001</v>
+      </c>
+      <c r="D9">
+        <v>33.628599999999999</v>
+      </c>
+      <c r="E9">
+        <v>32.234400000000001</v>
+      </c>
+      <c r="F9">
+        <v>35.064900000000002</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>33.21228</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.5917</v>
+      </c>
+      <c r="C10">
+        <v>1.4814000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="F10">
+        <v>1.6032</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G11" si="1">AVERAGE(B10:F10)</f>
+        <v>0.90972000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.2727</v>
+      </c>
+      <c r="C11">
+        <v>0.4768</v>
+      </c>
+      <c r="D11">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.37239999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>27503240</v>
+      </c>
+      <c r="C15">
+        <v>29634256</v>
+      </c>
+      <c r="D15">
+        <v>31752688</v>
+      </c>
+      <c r="E15">
+        <v>31631976</v>
+      </c>
+      <c r="F15">
+        <v>29710192</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="2">AVERAGE(B15:F15)</f>
+        <v>30482110.399999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>42052176</v>
+      </c>
+      <c r="C16">
+        <v>39196176</v>
+      </c>
+      <c r="D16">
+        <v>37426264</v>
+      </c>
+      <c r="E16">
+        <v>36323992</v>
+      </c>
+      <c r="F16">
+        <v>35855456</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>38170812.799999997</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>36143400</v>
+      </c>
+      <c r="C17">
+        <v>47276392</v>
+      </c>
+      <c r="D17">
+        <v>46348456</v>
+      </c>
+      <c r="E17">
+        <v>45983864</v>
+      </c>
+      <c r="F17">
+        <v>43938736</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>43938169.600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>37000848</v>
+      </c>
+      <c r="C18">
+        <v>36419416</v>
+      </c>
+      <c r="D18">
+        <v>33326120</v>
+      </c>
+      <c r="E18">
+        <v>33237200</v>
+      </c>
+      <c r="F18">
+        <v>32694408</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>34535598.399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>36673680</v>
+      </c>
+      <c r="C19">
+        <v>38099896</v>
+      </c>
+      <c r="D19">
+        <v>38167296</v>
+      </c>
+      <c r="E19">
+        <v>37090288</v>
+      </c>
+      <c r="F19">
+        <v>36258600</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>37257952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>39754880</v>
+      </c>
+      <c r="C20">
+        <v>30866792</v>
+      </c>
+      <c r="D20">
+        <v>41245712</v>
+      </c>
+      <c r="E20">
+        <v>24394720</v>
+      </c>
+      <c r="F20">
+        <v>43136392</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>34065526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>28338576</v>
+      </c>
+      <c r="C21">
+        <v>44089696</v>
+      </c>
+      <c r="D21">
+        <v>43829272</v>
+      </c>
+      <c r="E21">
+        <v>41265976</v>
+      </c>
+      <c r="F21">
+        <v>40016856</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>39508075.200000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>44390889</v>
+      </c>
+      <c r="C22">
+        <v>35736204</v>
+      </c>
+      <c r="D22">
+        <v>43522618</v>
+      </c>
+      <c r="E22">
+        <v>42203781</v>
+      </c>
+      <c r="F22">
+        <v>35091362</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>40188970.799999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>34315240</v>
+      </c>
+      <c r="C23">
+        <v>37210152</v>
+      </c>
+      <c r="D23">
+        <v>45209136</v>
+      </c>
+      <c r="E23">
+        <v>43556008</v>
+      </c>
+      <c r="F23">
+        <v>36432568</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>39344620.799999997</v>
       </c>
     </row>
   </sheetData>
@@ -612,17 +939,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FB320D-C578-4CA1-BCE7-47B5E47FC8FF}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -642,146 +972,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
+      <c r="B3">
+        <v>380.6026</v>
+      </c>
+      <c r="C3">
+        <v>365.12360000000001</v>
+      </c>
+      <c r="D3">
+        <v>397.25650000000002</v>
+      </c>
+      <c r="E3">
+        <v>469.6825</v>
+      </c>
+      <c r="F3">
+        <v>359.94029999999998</v>
+      </c>
+      <c r="G3">
         <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+        <v>394.52109999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>15.165699999999999</v>
+      </c>
+      <c r="C4">
+        <v>11.2578</v>
+      </c>
+      <c r="D4">
+        <v>15.552899999999999</v>
+      </c>
+      <c r="E4">
+        <v>93.358400000000003</v>
+      </c>
+      <c r="F4">
+        <v>16.7623</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>13.211749999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>3081.5677999999998</v>
+      </c>
+      <c r="C5">
+        <v>3067.4167000000002</v>
+      </c>
+      <c r="D5">
+        <v>3072.8951000000002</v>
+      </c>
+      <c r="E5">
+        <v>3059.2628</v>
+      </c>
+      <c r="F5">
+        <v>3079.2303000000002</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>3074.4922500000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>360.58359999999999</v>
+      </c>
+      <c r="C6">
+        <v>329.69260000000003</v>
+      </c>
+      <c r="D6">
+        <v>330.41300000000001</v>
+      </c>
+      <c r="E6">
+        <v>463.10599999999999</v>
+      </c>
+      <c r="F6">
+        <v>354.44150000000002</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B6:F6)</f>
+        <v>345.13810000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>3227.1977000000002</v>
+      </c>
+      <c r="C7">
+        <v>3183.1122</v>
+      </c>
+      <c r="D7">
+        <v>3151.9877000000001</v>
+      </c>
+      <c r="E7">
+        <v>3167.3301000000001</v>
+      </c>
+      <c r="F7">
+        <v>3221.8022000000001</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>3205.1549500000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>468.04770000000002</v>
+      </c>
+      <c r="C8">
+        <v>399.15390000000002</v>
+      </c>
+      <c r="D8">
+        <v>410.7894</v>
+      </c>
+      <c r="E8">
+        <v>348.59019999999998</v>
+      </c>
+      <c r="F8">
+        <v>323.41250000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="0">AVERAGE(B8:F8)</f>
+        <v>406.64530000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>205.67740000000001</v>
+      </c>
+      <c r="C9">
+        <v>160.4263</v>
+      </c>
+      <c r="D9">
+        <v>224.2578</v>
+      </c>
+      <c r="E9">
+        <v>176.9289</v>
+      </c>
+      <c r="F9">
+        <v>200.5043</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>193.55893999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>30.5382</v>
+      </c>
+      <c r="C10">
+        <v>22.5166</v>
+      </c>
+      <c r="D10">
+        <v>23.071999999999999</v>
+      </c>
+      <c r="E10">
+        <v>22.011500000000002</v>
+      </c>
+      <c r="F10">
+        <v>28.834299999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>25.39452</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1.5656000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.0096000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.4400999999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.3909</v>
+      </c>
+      <c r="F11">
+        <v>1.2169000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.3246199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>37817584</v>
+      </c>
+      <c r="C15">
+        <v>35911312</v>
+      </c>
+      <c r="D15">
+        <v>35844048</v>
+      </c>
+      <c r="E15">
+        <v>39762680</v>
+      </c>
+      <c r="F15">
+        <v>37852872</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>37437699.200000003</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>42745392</v>
+      </c>
+      <c r="C16">
+        <v>42084000</v>
+      </c>
+      <c r="D16">
+        <v>41924944</v>
+      </c>
+      <c r="E16">
+        <v>41109000</v>
+      </c>
+      <c r="F16">
+        <v>41802536</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>41933174.399999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>152824704</v>
+      </c>
+      <c r="C17">
+        <v>103854112</v>
+      </c>
+      <c r="D17">
+        <v>101879808</v>
+      </c>
+      <c r="E17">
+        <v>105780016</v>
+      </c>
+      <c r="F17">
+        <v>102222848</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>113312297.59999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>70967808</v>
+      </c>
+      <c r="C18">
+        <v>57200000</v>
+      </c>
+      <c r="D18">
+        <v>56684272</v>
+      </c>
+      <c r="E18">
+        <v>58012104</v>
+      </c>
+      <c r="F18">
+        <v>57435160</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>60059868.799999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>57579040</v>
+      </c>
+      <c r="C19">
+        <v>166141616</v>
+      </c>
+      <c r="D19">
+        <v>164794368</v>
+      </c>
+      <c r="E19">
+        <v>164500272</v>
+      </c>
+      <c r="F19">
+        <v>169331712</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>144469401.59999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>54527096</v>
+      </c>
+      <c r="C20">
+        <v>74653184</v>
+      </c>
+      <c r="D20">
+        <v>54483960</v>
+      </c>
+      <c r="E20">
+        <v>53736640</v>
+      </c>
+      <c r="F20">
+        <v>73959416</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>59350220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>115005952</v>
+      </c>
+      <c r="C21">
+        <v>64121240</v>
+      </c>
+      <c r="D21">
+        <v>59934720</v>
+      </c>
+      <c r="E21">
+        <v>63836976</v>
+      </c>
+      <c r="F21">
+        <v>62379008</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>73055579.200000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>175390317</v>
+      </c>
+      <c r="C22">
+        <v>80636257</v>
+      </c>
+      <c r="D22">
+        <v>83325805</v>
+      </c>
+      <c r="E22">
+        <v>106007142</v>
+      </c>
+      <c r="F22">
+        <v>121379992</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>113347902.59999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>183356928</v>
+      </c>
+      <c r="C23">
+        <v>87693248</v>
+      </c>
+      <c r="D23">
+        <v>97052088</v>
+      </c>
+      <c r="E23">
+        <v>112725008</v>
+      </c>
+      <c r="F23">
+        <v>127909888</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>121747432</v>
       </c>
     </row>
   </sheetData>
@@ -791,17 +1439,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -821,146 +1472,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
-        <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>1661.3031000000001</v>
+      </c>
+      <c r="C3">
+        <v>1917.6264000000001</v>
+      </c>
+      <c r="D3">
+        <v>1810.2498000000001</v>
+      </c>
+      <c r="E3">
+        <v>1912.7548999999999</v>
+      </c>
+      <c r="F3">
+        <v>1851.3224</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">AVERAGE(B3:F3)</f>
+        <v>1830.6513200000002</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>60.1723</v>
+      </c>
+      <c r="C4">
+        <v>59.092399999999998</v>
+      </c>
+      <c r="D4">
+        <v>148.54</v>
+      </c>
+      <c r="E4">
+        <v>39.951799999999999</v>
+      </c>
+      <c r="F4">
+        <v>100.1446</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>81.580220000000011</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
+      <c r="B5">
+        <v>3163.2246</v>
+      </c>
+      <c r="C5">
+        <v>3128.8883000000001</v>
+      </c>
+      <c r="D5">
+        <v>3211.1462999999999</v>
+      </c>
+      <c r="E5">
+        <v>3131.0517</v>
+      </c>
+      <c r="F5">
+        <v>3131.7166000000002</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3153.2055</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
+      <c r="B6">
+        <v>1261.3766000000001</v>
+      </c>
+      <c r="C6">
+        <v>1341.086</v>
+      </c>
+      <c r="D6">
+        <v>1201.9387999999999</v>
+      </c>
+      <c r="E6">
+        <v>1156.0518</v>
+      </c>
+      <c r="F6">
+        <v>1311.6446000000001</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1254.4195599999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
+      <c r="B7">
+        <v>3713.7139000000002</v>
+      </c>
+      <c r="C7">
+        <v>3661.8283000000001</v>
+      </c>
+      <c r="D7">
+        <v>3666.3566999999998</v>
+      </c>
+      <c r="E7">
+        <v>3703.3714</v>
+      </c>
+      <c r="F7">
+        <v>3639.6732000000002</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3676.9887000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1468.9782</v>
+      </c>
+      <c r="C8">
+        <v>1316.0996</v>
+      </c>
+      <c r="D8">
+        <v>1445.8100999999999</v>
+      </c>
+      <c r="E8">
+        <v>392.69839999999999</v>
+      </c>
+      <c r="F8">
+        <v>1924.1320000000001</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1309.54366</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>464.68329999999997</v>
+      </c>
+      <c r="C9">
+        <v>465.24520000000001</v>
+      </c>
+      <c r="D9">
+        <v>480.74540000000002</v>
+      </c>
+      <c r="E9">
+        <v>400.2346</v>
+      </c>
+      <c r="F9">
+        <v>390.63600000000002</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>440.30889999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>90.031999999999996</v>
+      </c>
+      <c r="C10">
+        <v>77.328800000000001</v>
+      </c>
+      <c r="D10">
+        <v>83.116200000000006</v>
+      </c>
+      <c r="E10">
+        <v>76.643500000000003</v>
+      </c>
+      <c r="F10">
+        <v>6.9787999999999997</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>66.819859999999991</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5.4619</v>
+      </c>
+      <c r="C11">
+        <v>4.4010999999999996</v>
+      </c>
+      <c r="D11">
+        <v>3.9727000000000001</v>
+      </c>
+      <c r="E11">
+        <v>7.0079000000000002</v>
+      </c>
+      <c r="F11">
+        <v>98.695700000000002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>23.907859999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>122744832</v>
+      </c>
+      <c r="C15">
+        <v>122201088</v>
+      </c>
+      <c r="D15">
+        <v>122096640</v>
+      </c>
+      <c r="E15">
+        <v>124877024</v>
+      </c>
+      <c r="F15">
+        <v>122035808</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>122214732.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>185502208</v>
+      </c>
+      <c r="C16">
+        <v>212813840</v>
+      </c>
+      <c r="D16">
+        <v>184569888</v>
+      </c>
+      <c r="E16">
+        <v>179155912</v>
+      </c>
+      <c r="F16">
+        <v>184048640</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>189218097.59999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>312482008</v>
+      </c>
+      <c r="C17">
+        <v>351410176</v>
+      </c>
+      <c r="D17">
+        <v>299321088</v>
+      </c>
+      <c r="E17">
+        <v>372662272</v>
+      </c>
+      <c r="F17">
+        <v>324989440</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>332172996.80000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>265680568</v>
+      </c>
+      <c r="C18">
+        <v>287937024</v>
+      </c>
+      <c r="D18">
+        <v>324875696</v>
+      </c>
+      <c r="E18">
+        <v>229287384</v>
+      </c>
+      <c r="F18">
+        <v>262435304</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>274043195.19999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>373149184</v>
+      </c>
+      <c r="C19">
+        <v>584172128</v>
+      </c>
+      <c r="D19">
+        <v>377902592</v>
+      </c>
+      <c r="E19">
+        <v>267293184</v>
+      </c>
+      <c r="F19">
+        <v>526578144</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>425819046.39999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>282106304</v>
+      </c>
+      <c r="C20">
+        <v>264243200</v>
+      </c>
+      <c r="D20">
+        <v>270634576</v>
+      </c>
+      <c r="E20">
+        <v>317272064</v>
+      </c>
+      <c r="F20">
+        <v>255662184</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>283564036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>246157312</v>
+      </c>
+      <c r="C21">
+        <v>281428480</v>
+      </c>
+      <c r="D21">
+        <v>349284864</v>
+      </c>
+      <c r="E21">
+        <v>338330344</v>
+      </c>
+      <c r="F21">
+        <v>254590976</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>293958395.19999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>332467729</v>
+      </c>
+      <c r="C22">
+        <v>543988394</v>
+      </c>
+      <c r="D22">
+        <v>542789802</v>
+      </c>
+      <c r="E22">
+        <v>655951362</v>
+      </c>
+      <c r="F22">
+        <v>512714154</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>517582288.19999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>354555392</v>
+      </c>
+      <c r="C23">
+        <v>599214080</v>
+      </c>
+      <c r="D23">
+        <v>449077176</v>
+      </c>
+      <c r="E23">
+        <v>711665824</v>
+      </c>
+      <c r="F23">
+        <v>298880016</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>482678497.60000002</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10386740-30AE-45EC-B3F7-8DF8058A0DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15112DEB-198E-4BD2-BACF-9AE17AE52A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>First</t>
   </si>
@@ -71,13 +71,22 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Filter n sort</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Filter(Completion)</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Cache nav</t>
+  </si>
+  <si>
+    <t>Calendar nav</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFABCB-B013-4245-BF63-613FBFCF1254}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:G17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -443,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -463,146 +472,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
+      <c r="B3">
+        <v>230.6345</v>
+      </c>
+      <c r="C3">
+        <v>218.69399999999999</v>
+      </c>
+      <c r="D3">
+        <v>197.6276</v>
+      </c>
+      <c r="E3">
+        <v>210.9778</v>
+      </c>
+      <c r="F3">
+        <v>182.01900000000001</v>
+      </c>
+      <c r="G3">
         <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+        <v>207.99057999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>26.0977</v>
+      </c>
+      <c r="C4">
+        <v>22.5747</v>
+      </c>
+      <c r="D4">
+        <v>12.941599999999999</v>
+      </c>
+      <c r="E4">
+        <v>11.78</v>
+      </c>
+      <c r="F4">
+        <v>14.912599999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G7" si="0">AVERAGE(B4:F4)</f>
+        <v>17.661319999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
+      <c r="B5">
+        <v>175.49420000000001</v>
+      </c>
+      <c r="C5">
+        <v>175.8681</v>
+      </c>
+      <c r="D5">
+        <v>83.368200000000002</v>
+      </c>
+      <c r="E5">
+        <v>199.44720000000001</v>
+      </c>
+      <c r="F5">
+        <v>206.54910000000001</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>168.14535999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
+      <c r="B6">
+        <v>243.9667</v>
+      </c>
+      <c r="C6">
+        <v>225.59889999999999</v>
+      </c>
+      <c r="D6">
+        <v>166.8837</v>
+      </c>
+      <c r="E6">
+        <v>178.53120000000001</v>
+      </c>
+      <c r="F6">
+        <v>190.55439999999999</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>201.10697999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
+      <c r="B7">
+        <v>60.2654</v>
+      </c>
+      <c r="C7">
+        <v>70.162700000000001</v>
+      </c>
+      <c r="D7">
+        <v>74.555000000000007</v>
+      </c>
+      <c r="E7">
+        <v>50.787500000000001</v>
+      </c>
+      <c r="F7">
+        <v>87.763599999999997</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>68.70684</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>167.45519999999999</v>
+      </c>
+      <c r="C8">
+        <v>142.28989999999999</v>
+      </c>
+      <c r="D8">
+        <v>115.2149</v>
+      </c>
+      <c r="E8">
+        <v>118.4284</v>
+      </c>
+      <c r="F8">
+        <v>121.4877</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="1">AVERAGE(B8:F8)</f>
+        <v>135.84709999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>46.468299999999999</v>
+      </c>
+      <c r="C9">
+        <v>42.233600000000003</v>
+      </c>
+      <c r="D9">
+        <v>30.7713</v>
+      </c>
+      <c r="E9">
+        <v>40.692999999999998</v>
+      </c>
+      <c r="F9">
+        <v>29.921900000000001</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>38.017620000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.0669</v>
+      </c>
+      <c r="C10">
+        <v>0.8659</v>
+      </c>
+      <c r="D10">
+        <v>1.0627</v>
+      </c>
+      <c r="E10">
+        <v>1.6438999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.8014</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.08816</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="C11">
+        <v>2.8931</v>
+      </c>
+      <c r="D11">
+        <v>0.66310000000000002</v>
+      </c>
+      <c r="E11">
+        <v>1.03</v>
+      </c>
+      <c r="F11">
+        <v>0.66739999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.2384599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>32081568</v>
+      </c>
+      <c r="C15">
+        <v>29729192</v>
+      </c>
+      <c r="D15">
+        <v>29636200</v>
+      </c>
+      <c r="E15">
+        <v>29598600</v>
+      </c>
+      <c r="F15">
+        <v>31946528</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="2">AVERAGE(B15:F15)</f>
+        <v>30114920</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>33139000</v>
+      </c>
+      <c r="C16">
+        <v>35219392</v>
+      </c>
+      <c r="D16">
+        <v>35273264</v>
+      </c>
+      <c r="E16">
+        <v>36000248</v>
+      </c>
+      <c r="F16">
+        <v>37711192</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>35468619.200000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>68266496</v>
+      </c>
+      <c r="C17">
+        <v>45508880</v>
+      </c>
+      <c r="D17">
+        <v>46285656</v>
+      </c>
+      <c r="E17">
+        <v>42534296</v>
+      </c>
+      <c r="F17">
+        <v>46478088</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>49814683.200000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>34712064</v>
+      </c>
+      <c r="C18">
+        <v>32958152</v>
+      </c>
+      <c r="D18">
+        <v>35709144</v>
+      </c>
+      <c r="E18">
+        <v>33240096</v>
+      </c>
+      <c r="F18">
+        <v>34939840</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>34311859.200000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>78750208</v>
+      </c>
+      <c r="C19">
+        <v>37915320</v>
+      </c>
+      <c r="D19">
+        <v>37244656</v>
+      </c>
+      <c r="E19">
+        <v>34968688</v>
+      </c>
+      <c r="F19">
+        <v>37003248</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>45176424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>40743216</v>
+      </c>
+      <c r="C20">
+        <v>40374608</v>
+      </c>
+      <c r="D20">
+        <v>41674416</v>
+      </c>
+      <c r="E20">
+        <v>41129664</v>
+      </c>
+      <c r="F20">
+        <v>45576864</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>40980476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>43100672</v>
+      </c>
+      <c r="C21">
+        <v>41187328</v>
+      </c>
+      <c r="D21">
+        <v>42903312</v>
+      </c>
+      <c r="E21">
+        <v>40878320</v>
+      </c>
+      <c r="F21">
+        <v>42127384</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>42039403.200000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>83715573</v>
+      </c>
+      <c r="C22">
+        <v>42364370</v>
+      </c>
+      <c r="D22">
+        <v>42905409</v>
+      </c>
+      <c r="E22">
+        <v>40413460</v>
+      </c>
+      <c r="F22">
+        <v>42392268</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>50358216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>85882688</v>
+      </c>
+      <c r="C23">
+        <v>43649152</v>
+      </c>
+      <c r="D23">
+        <v>44405656</v>
+      </c>
+      <c r="E23">
+        <v>41768192</v>
+      </c>
+      <c r="F23">
+        <v>43739408</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>51889019.200000003</v>
       </c>
     </row>
   </sheetData>
@@ -612,17 +939,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FB320D-C578-4CA1-BCE7-47B5E47FC8FF}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -642,146 +972,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
-        <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>746.81730000000005</v>
+      </c>
+      <c r="C3">
+        <v>685.24580000000003</v>
+      </c>
+      <c r="D3">
+        <v>719.63679999999999</v>
+      </c>
+      <c r="E3">
+        <v>775.24180000000001</v>
+      </c>
+      <c r="F3">
+        <v>668.45770000000005</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0">AVERAGE(B3:F3)</f>
+        <v>719.07988</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>33.1128</v>
+      </c>
+      <c r="C4">
+        <v>30.891200000000001</v>
+      </c>
+      <c r="D4">
+        <v>21.246300000000002</v>
+      </c>
+      <c r="E4">
+        <v>26.5002</v>
+      </c>
+      <c r="F4">
+        <v>24.691099999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>27.288320000000006</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
+      <c r="B5">
+        <v>72.393900000000002</v>
+      </c>
+      <c r="C5">
+        <v>118.9794</v>
+      </c>
+      <c r="D5">
+        <v>120.14870000000001</v>
+      </c>
+      <c r="E5">
+        <v>69.403499999999994</v>
+      </c>
+      <c r="F5">
+        <v>62.6203</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>88.709159999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
+      <c r="B6">
+        <v>571.07650000000001</v>
+      </c>
+      <c r="C6">
+        <v>599.37059999999997</v>
+      </c>
+      <c r="D6">
+        <v>556.83330000000001</v>
+      </c>
+      <c r="E6">
+        <v>436.88499999999999</v>
+      </c>
+      <c r="F6">
+        <v>416.7912</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>516.19132000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
+      <c r="B7">
+        <v>251.18459999999999</v>
+      </c>
+      <c r="C7">
+        <v>284.93020000000001</v>
+      </c>
+      <c r="D7">
+        <v>313.89</v>
+      </c>
+      <c r="E7">
+        <v>442.32369999999997</v>
+      </c>
+      <c r="F7">
+        <v>229.54480000000001</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>304.37466000000006</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>508.77260000000001</v>
+      </c>
+      <c r="C8">
+        <v>461.87439999999998</v>
+      </c>
+      <c r="D8">
+        <v>471.50779999999997</v>
+      </c>
+      <c r="E8">
+        <v>533.27890000000002</v>
+      </c>
+      <c r="F8">
+        <v>604.28390000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="1">AVERAGE(B8:F8)</f>
+        <v>493.85842499999995</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>217.9691</v>
+      </c>
+      <c r="C9">
+        <v>253.69300000000001</v>
+      </c>
+      <c r="D9">
+        <v>221.79230000000001</v>
+      </c>
+      <c r="E9">
+        <v>227.04640000000001</v>
+      </c>
+      <c r="F9">
+        <v>246.75659999999999</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>233.45148</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>32.941899999999997</v>
+      </c>
+      <c r="C10">
+        <v>36.521799999999999</v>
+      </c>
+      <c r="D10">
+        <v>53.431800000000003</v>
+      </c>
+      <c r="E10">
+        <v>45.694000000000003</v>
+      </c>
+      <c r="F10">
+        <v>44.298400000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>42.577579999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1.1085</v>
+      </c>
+      <c r="C11">
+        <v>1.1697</v>
+      </c>
+      <c r="D11">
+        <v>1.6526000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.1982999999999999</v>
+      </c>
+      <c r="F11">
+        <v>1.0521</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.23624</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>37617296</v>
+      </c>
+      <c r="C15">
+        <v>35759760</v>
+      </c>
+      <c r="D15">
+        <v>38183648</v>
+      </c>
+      <c r="E15">
+        <v>36022112</v>
+      </c>
+      <c r="F15">
+        <v>38116736</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="2">AVERAGE(B15:F15)</f>
+        <v>37190336</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>42737040</v>
+      </c>
+      <c r="C16">
+        <v>41871776</v>
+      </c>
+      <c r="D16">
+        <v>43121296</v>
+      </c>
+      <c r="E16">
+        <v>42399928</v>
+      </c>
+      <c r="F16">
+        <v>47584768</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>43542961.600000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>124831080</v>
+      </c>
+      <c r="C17">
+        <v>123831552</v>
+      </c>
+      <c r="D17">
+        <v>127607936</v>
+      </c>
+      <c r="E17">
+        <v>125150720</v>
+      </c>
+      <c r="F17">
+        <v>175511040</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>135386465.59999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>51786144</v>
+      </c>
+      <c r="C18">
+        <v>50342352</v>
+      </c>
+      <c r="D18">
+        <v>55079168</v>
+      </c>
+      <c r="E18">
+        <v>54501664</v>
+      </c>
+      <c r="F18">
+        <v>91622912</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>60666448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>84931672</v>
+      </c>
+      <c r="C19">
+        <v>63582304</v>
+      </c>
+      <c r="D19">
+        <v>70110376</v>
+      </c>
+      <c r="E19">
+        <v>67624056</v>
+      </c>
+      <c r="F19">
+        <v>78364048</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>72922491.200000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>53294024</v>
+      </c>
+      <c r="C20">
+        <v>55575040</v>
+      </c>
+      <c r="D20">
+        <v>55148912</v>
+      </c>
+      <c r="E20">
+        <v>52951936</v>
+      </c>
+      <c r="F20">
+        <v>55785896</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>54242478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>84633600</v>
+      </c>
+      <c r="C21">
+        <v>134187520</v>
+      </c>
+      <c r="D21">
+        <v>87760000</v>
+      </c>
+      <c r="E21">
+        <v>87401984</v>
+      </c>
+      <c r="F21">
+        <v>135665152</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>105929651.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>94372377</v>
+      </c>
+      <c r="C22">
+        <v>126146314</v>
+      </c>
+      <c r="D22">
+        <v>136822706</v>
+      </c>
+      <c r="E22">
+        <v>107193758</v>
+      </c>
+      <c r="F22">
+        <v>104609120</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>113828855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>102240112</v>
+      </c>
+      <c r="C23">
+        <v>132786272</v>
+      </c>
+      <c r="D23">
+        <v>144794176</v>
+      </c>
+      <c r="E23">
+        <v>107193758</v>
+      </c>
+      <c r="F23">
+        <v>111446096</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>119692082.8</v>
       </c>
     </row>
   </sheetData>
@@ -791,17 +1439,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -821,146 +1472,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
-        <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>3101.5408000000002</v>
+      </c>
+      <c r="C3">
+        <v>3294.4816000000001</v>
+      </c>
+      <c r="D3">
+        <v>3146.7512999999999</v>
+      </c>
+      <c r="E3">
+        <v>2905.8694</v>
+      </c>
+      <c r="F3">
+        <v>3004.0239999999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">AVERAGE(B3:F3)</f>
+        <v>3130.2156399999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>69.152900000000002</v>
+      </c>
+      <c r="C4">
+        <v>95.981499999999997</v>
+      </c>
+      <c r="D4">
+        <v>126.18510000000001</v>
+      </c>
+      <c r="E4">
+        <v>94.82</v>
+      </c>
+      <c r="F4">
+        <v>100.28360000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>97.28461999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
+      <c r="B5">
+        <v>192.18950000000001</v>
+      </c>
+      <c r="C5">
+        <v>178.31399999999999</v>
+      </c>
+      <c r="D5">
+        <v>251.31440000000001</v>
+      </c>
+      <c r="E5">
+        <v>165.2046</v>
+      </c>
+      <c r="F5">
+        <v>233.59819999999999</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>204.12414000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
+      <c r="B6">
+        <v>2364.3721</v>
+      </c>
+      <c r="C6">
+        <v>2335.6041</v>
+      </c>
+      <c r="D6">
+        <v>1749.056</v>
+      </c>
+      <c r="E6">
+        <v>2258.1356999999998</v>
+      </c>
+      <c r="F6">
+        <v>2591.8971999999999</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2259.8130200000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
+      <c r="B7">
+        <v>1314.6541999999999</v>
+      </c>
+      <c r="C7">
+        <v>1164.6818000000001</v>
+      </c>
+      <c r="D7">
+        <v>1129.2030999999999</v>
+      </c>
+      <c r="E7">
+        <v>1177.1996999999999</v>
+      </c>
+      <c r="F7">
+        <v>1287.0371</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1214.5551800000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2310.3465999999999</v>
+      </c>
+      <c r="C8">
+        <v>2221.6284000000001</v>
+      </c>
+      <c r="D8">
+        <v>2368.8305999999998</v>
+      </c>
+      <c r="E8">
+        <v>2552.6568000000002</v>
+      </c>
+      <c r="F8">
+        <v>2699.5803999999998</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(B8:F8)</f>
+        <v>2363.3656000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>713.58810000000005</v>
+      </c>
+      <c r="C9">
+        <v>751.31790000000001</v>
+      </c>
+      <c r="D9">
+        <v>957.01419999999996</v>
+      </c>
+      <c r="E9">
+        <v>728.58960000000002</v>
+      </c>
+      <c r="F9">
+        <v>789.28430000000003</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>787.95882000000006</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>203.7337</v>
+      </c>
+      <c r="C10">
+        <v>175.1044</v>
+      </c>
+      <c r="D10">
+        <v>196.96709999999999</v>
+      </c>
+      <c r="E10">
+        <v>154.42619999999999</v>
+      </c>
+      <c r="F10">
+        <v>174.04679999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>180.85563999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5.7188999999999997</v>
+      </c>
+      <c r="C11">
+        <v>6.4823000000000004</v>
+      </c>
+      <c r="D11">
+        <v>5.6166</v>
+      </c>
+      <c r="E11">
+        <v>9.2797999999999998</v>
+      </c>
+      <c r="F11">
+        <v>6.4214000000000002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>6.7037999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>122710120</v>
+      </c>
+      <c r="C15">
+        <v>122105856</v>
+      </c>
+      <c r="D15">
+        <v>122380800</v>
+      </c>
+      <c r="E15">
+        <v>125939104</v>
+      </c>
+      <c r="F15">
+        <v>122081792</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>123042920</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>190619648</v>
+      </c>
+      <c r="C16">
+        <v>217054208</v>
+      </c>
+      <c r="D16">
+        <v>178356048</v>
+      </c>
+      <c r="E16">
+        <v>205332696</v>
+      </c>
+      <c r="F16">
+        <v>189459456</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>196164411.19999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>353438208</v>
+      </c>
+      <c r="C17">
+        <v>329383064</v>
+      </c>
+      <c r="D17">
+        <v>431677952</v>
+      </c>
+      <c r="E17">
+        <v>357112320</v>
+      </c>
+      <c r="F17">
+        <v>380591016</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>370440512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>274558976</v>
+      </c>
+      <c r="C18">
+        <v>249517720</v>
+      </c>
+      <c r="D18">
+        <v>255730688</v>
+      </c>
+      <c r="E18">
+        <v>315758376</v>
+      </c>
+      <c r="F18">
+        <v>275630592</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>274239270.39999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>374114000</v>
+      </c>
+      <c r="C19">
+        <v>518044464</v>
+      </c>
+      <c r="D19">
+        <v>482699488</v>
+      </c>
+      <c r="E19">
+        <v>684268032</v>
+      </c>
+      <c r="F19">
+        <v>703510544</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>552527305.60000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>261198336</v>
+      </c>
+      <c r="C20">
+        <v>245326424</v>
+      </c>
+      <c r="D20">
+        <v>282877104</v>
+      </c>
+      <c r="E20">
+        <v>234135552</v>
+      </c>
+      <c r="F20">
+        <v>331163136</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(B20:F20)</f>
+        <v>255884354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>336101888</v>
+      </c>
+      <c r="C21">
+        <v>250465280</v>
+      </c>
+      <c r="D21">
+        <v>253746256</v>
+      </c>
+      <c r="E21">
+        <v>347545880</v>
+      </c>
+      <c r="F21">
+        <v>373293056</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>312230472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>506464258</v>
+      </c>
+      <c r="C22">
+        <v>459842901</v>
+      </c>
+      <c r="D22">
+        <v>647123864</v>
+      </c>
+      <c r="E22">
+        <v>523166208</v>
+      </c>
+      <c r="F22">
+        <v>651537578</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>557626961.79999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>524290048</v>
+      </c>
+      <c r="C23">
+        <v>516466688</v>
+      </c>
+      <c r="D23">
+        <v>494486528</v>
+      </c>
+      <c r="E23">
+        <v>496616416</v>
+      </c>
+      <c r="F23">
+        <v>709181096</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>548208155.20000005</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10386740-30AE-45EC-B3F7-8DF8058A0DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F5DAB-15BB-42A4-8DE0-C37519849C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>First</t>
   </si>
@@ -71,13 +71,22 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Filter n sort</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Filter(Completion)</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Cache nav</t>
+  </si>
+  <si>
+    <t>Calendar nav</t>
   </si>
 </sst>
 </file>
@@ -429,21 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFABCB-B013-4245-BF63-613FBFCF1254}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:G17"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -463,146 +471,464 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
-        <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>185.10750100000001</v>
+      </c>
+      <c r="C3">
+        <v>188.292</v>
+      </c>
+      <c r="D3">
+        <v>201.3159</v>
+      </c>
+      <c r="E3">
+        <v>210.72630000000001</v>
+      </c>
+      <c r="F3">
+        <v>185.18740099999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">AVERAGE(B3:F3)</f>
+        <v>193.2119802</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>13.3317</v>
+      </c>
+      <c r="C4">
+        <v>11.353999999999999</v>
+      </c>
+      <c r="D4">
+        <v>15.4842</v>
+      </c>
+      <c r="E4">
+        <v>11.6859</v>
+      </c>
+      <c r="F4">
+        <v>14.047200999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>13.180600200000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
+      <c r="B5">
+        <v>116.82640000000001</v>
+      </c>
+      <c r="C5">
+        <v>92.296000000000006</v>
+      </c>
+      <c r="D5">
+        <v>109.2277</v>
+      </c>
+      <c r="E5">
+        <v>88.047999000000004</v>
+      </c>
+      <c r="F5">
+        <v>81.360299999999995</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>97.551679800000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
+      <c r="B6">
+        <v>165.44649999999999</v>
+      </c>
+      <c r="C6">
+        <v>179.679</v>
+      </c>
+      <c r="D6">
+        <v>165.788601</v>
+      </c>
+      <c r="E6">
+        <v>185.957999</v>
+      </c>
+      <c r="F6">
+        <v>177.4478</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>174.86398</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
+      <c r="B7">
+        <v>108.96550000000001</v>
+      </c>
+      <c r="C7">
+        <v>62.514901000000002</v>
+      </c>
+      <c r="D7">
+        <v>81.483800000000002</v>
+      </c>
+      <c r="E7">
+        <v>71.549501000000006</v>
+      </c>
+      <c r="F7">
+        <v>71.885800000000003</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>79.279900400000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>196.71929900000001</v>
+      </c>
+      <c r="C8">
+        <v>99.324200000000005</v>
+      </c>
+      <c r="D8">
+        <v>180.037601</v>
+      </c>
+      <c r="E8">
+        <v>105.18380000000001</v>
+      </c>
+      <c r="F8">
+        <v>123.7713</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>145.316225</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>31.498899000000002</v>
+      </c>
+      <c r="C9">
+        <v>32.643698999999998</v>
+      </c>
+      <c r="D9">
+        <v>29.014800999999999</v>
+      </c>
+      <c r="E9">
+        <v>28.229399999999998</v>
+      </c>
+      <c r="F9">
+        <v>36.504699000000002</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>31.578299600000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.5317000000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.1825000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.1153</v>
+      </c>
+      <c r="E10">
+        <v>1.6121000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.2377</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.33586</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1.462</v>
+      </c>
+      <c r="C11">
+        <v>0.52370000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.78289900000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.89023980000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>29505656</v>
+      </c>
+      <c r="C15">
+        <v>29759632</v>
+      </c>
+      <c r="D15">
+        <v>29491104</v>
+      </c>
+      <c r="E15">
+        <v>29709888</v>
+      </c>
+      <c r="F15">
+        <v>27475432</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>29590228.800000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>28030496</v>
+      </c>
+      <c r="C16">
+        <v>35913272</v>
+      </c>
+      <c r="D16">
+        <v>35864120</v>
+      </c>
+      <c r="E16">
+        <v>37572792</v>
+      </c>
+      <c r="F16">
+        <v>35031688</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>34482473.600000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>36590136</v>
+      </c>
+      <c r="C17">
+        <v>44303672</v>
+      </c>
+      <c r="D17">
+        <v>44116480</v>
+      </c>
+      <c r="E17">
+        <v>45092744</v>
+      </c>
+      <c r="F17">
+        <v>46036144</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>43227835.200000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>35228000</v>
+      </c>
+      <c r="C18">
+        <v>33240656</v>
+      </c>
+      <c r="D18">
+        <v>33379152</v>
+      </c>
+      <c r="E18">
+        <v>35213168</v>
+      </c>
+      <c r="F18">
+        <v>36176696</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>34647534.399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>34927472</v>
+      </c>
+      <c r="C19">
+        <v>36691104</v>
+      </c>
+      <c r="D19">
+        <v>36250472</v>
+      </c>
+      <c r="E19">
+        <v>35756256</v>
+      </c>
+      <c r="F19">
+        <v>36879304</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>36100921.600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>41140424</v>
+      </c>
+      <c r="C20">
+        <v>41016504</v>
+      </c>
+      <c r="D20">
+        <v>40989232</v>
+      </c>
+      <c r="E20">
+        <v>41350136</v>
+      </c>
+      <c r="F20">
+        <v>41476168</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>41124074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>32510592</v>
+      </c>
+      <c r="C21">
+        <v>43269224</v>
+      </c>
+      <c r="D21">
+        <v>40733032</v>
+      </c>
+      <c r="E21">
+        <v>42593528</v>
+      </c>
+      <c r="F21">
+        <v>43462288</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>40513732.799999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>39406753</v>
+      </c>
+      <c r="C22">
+        <v>35052644</v>
+      </c>
+      <c r="D22">
+        <v>34739755</v>
+      </c>
+      <c r="E22">
+        <v>34628261</v>
+      </c>
+      <c r="F22">
+        <v>35156233</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>35796729.200000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>40494712</v>
+      </c>
+      <c r="C23">
+        <v>36458784</v>
+      </c>
+      <c r="D23">
+        <v>36086824</v>
+      </c>
+      <c r="E23">
+        <v>36133368</v>
+      </c>
+      <c r="F23">
+        <v>36363208</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>37107379.200000003</v>
       </c>
     </row>
   </sheetData>
@@ -612,17 +938,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FB320D-C578-4CA1-BCE7-47B5E47FC8FF}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -642,13 +971,28 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>700.80399999999997</v>
+      </c>
+      <c r="C3">
+        <v>681.81089999999995</v>
+      </c>
+      <c r="D3">
+        <v>645.56960000000004</v>
+      </c>
+      <c r="E3">
+        <v>662.39160000000004</v>
+      </c>
+      <c r="F3">
+        <v>739.61199999999997</v>
+      </c>
       <c r="G3" t="e">
         <f>AVERAGE(B3:F3)</f>
         <v>#DIV/0!</v>
@@ -658,8 +1002,23 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4">
+        <v>42.1265</v>
+      </c>
+      <c r="C4">
+        <v>24.866399999999999</v>
+      </c>
+      <c r="D4">
+        <v>22.856999999999999</v>
+      </c>
+      <c r="E4">
+        <v>24.563700000000001</v>
+      </c>
+      <c r="F4">
+        <v>31.4282</v>
+      </c>
       <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
+        <f>AVERAGE(B4:F4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -667,8 +1026,23 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>74.781599999999997</v>
+      </c>
+      <c r="C5">
+        <v>60.067700000000002</v>
+      </c>
+      <c r="D5">
+        <v>64.849000000000004</v>
+      </c>
+      <c r="E5">
+        <v>56.985399999999998</v>
+      </c>
+      <c r="F5">
+        <v>64.928399999999996</v>
+      </c>
       <c r="G5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B5:F5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -676,8 +1050,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6">
+        <v>395.12180000000001</v>
+      </c>
+      <c r="C6">
+        <v>526.07569999999998</v>
+      </c>
+      <c r="D6">
+        <v>492.35640000000001</v>
+      </c>
+      <c r="E6">
+        <v>420.91230000000002</v>
+      </c>
+      <c r="F6">
+        <v>473.23919999999998</v>
+      </c>
       <c r="G6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B6:F6)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -685,103 +1074,361 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7">
+        <v>354.7937</v>
+      </c>
+      <c r="C7">
+        <v>222.1711</v>
+      </c>
+      <c r="D7">
+        <v>283.02949999999998</v>
+      </c>
+      <c r="E7">
+        <v>285.10820000000001</v>
+      </c>
+      <c r="F7">
+        <v>294.10449999999997</v>
+      </c>
       <c r="G7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B7:F7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>503.9402</v>
+      </c>
+      <c r="C8">
+        <v>548.09829999999999</v>
+      </c>
+      <c r="D8">
+        <v>553.23559999999998</v>
+      </c>
+      <c r="E8">
+        <v>426.95179999999999</v>
+      </c>
+      <c r="F8">
+        <v>496.899</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="0">AVERAGE(B8:F8)</f>
+        <v>508.05647500000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>200.00890000000001</v>
+      </c>
+      <c r="C9">
+        <v>169.16749999999999</v>
+      </c>
+      <c r="D9">
+        <v>138.73070000000001</v>
+      </c>
+      <c r="E9">
+        <v>237.9676</v>
+      </c>
+      <c r="F9">
+        <v>159.9512</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>181.16518000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>59.276200000000003</v>
+      </c>
+      <c r="C10">
+        <v>64.992199999999997</v>
+      </c>
+      <c r="D10">
+        <v>71.967600000000004</v>
+      </c>
+      <c r="E10">
+        <v>62.705599999999997</v>
+      </c>
+      <c r="F10">
+        <v>79.3613</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>67.66058000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2.3018000000000001</v>
+      </c>
+      <c r="C11">
+        <v>5.3465999999999996</v>
+      </c>
+      <c r="D11">
+        <v>1.1303000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.4041999999999999</v>
+      </c>
+      <c r="F11">
+        <v>1.6161000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.3597999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>33563008</v>
+      </c>
+      <c r="C15">
+        <v>35700224</v>
+      </c>
+      <c r="D15">
+        <v>35702528</v>
+      </c>
+      <c r="E15">
+        <v>35675352</v>
+      </c>
+      <c r="F15">
+        <v>35696240</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>35254190.399999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>45503488</v>
+      </c>
+      <c r="C16">
+        <v>42205320</v>
+      </c>
+      <c r="D16">
+        <v>42274120</v>
+      </c>
+      <c r="E16">
+        <v>41978416</v>
+      </c>
+      <c r="F16">
+        <v>42536936</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>42899656</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>101058464</v>
+      </c>
+      <c r="C17">
+        <v>125472512</v>
+      </c>
+      <c r="D17">
+        <v>121955840</v>
+      </c>
+      <c r="E17">
+        <v>102264960</v>
+      </c>
+      <c r="F17">
+        <v>124208744</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>114992104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>57122408</v>
+      </c>
+      <c r="C18">
+        <v>54374752</v>
+      </c>
+      <c r="D18">
+        <v>50350480</v>
+      </c>
+      <c r="E18">
+        <v>57480960</v>
+      </c>
+      <c r="F18">
+        <v>51384128</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>54142545.600000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>161875872</v>
+      </c>
+      <c r="C19">
+        <v>90206208</v>
+      </c>
+      <c r="D19">
+        <v>77770400</v>
+      </c>
+      <c r="E19">
+        <v>164334648</v>
+      </c>
+      <c r="F19">
+        <v>72054304</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>113248286.40000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>53329144</v>
+      </c>
+      <c r="C20">
+        <v>55390208</v>
+      </c>
+      <c r="D20">
+        <v>53004280</v>
+      </c>
+      <c r="E20">
+        <v>53673736</v>
+      </c>
+      <c r="F20">
+        <v>53554000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>53849342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>61226928</v>
+      </c>
+      <c r="C21">
+        <v>87723776</v>
+      </c>
+      <c r="D21">
+        <v>82112000</v>
+      </c>
+      <c r="E21">
+        <v>63671352</v>
+      </c>
+      <c r="F21">
+        <v>84360808</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>75818972.799999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>48608692</v>
+      </c>
+      <c r="C22">
+        <v>49913688</v>
+      </c>
+      <c r="D22">
+        <v>51017697</v>
+      </c>
+      <c r="E22">
+        <v>46333657</v>
+      </c>
+      <c r="F22">
+        <v>48643917</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>48903530.200000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>39722048</v>
+      </c>
+      <c r="C23">
+        <v>57293352</v>
+      </c>
+      <c r="D23">
+        <v>58325832</v>
+      </c>
+      <c r="E23">
+        <v>39442376</v>
+      </c>
+      <c r="F23">
+        <v>38852208</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>46727163.200000003</v>
       </c>
     </row>
   </sheetData>
@@ -791,17 +1438,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -821,149 +1471,468 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="e">
-        <f>AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>2869.7298999999998</v>
+      </c>
+      <c r="C3">
+        <v>2953.2020000000002</v>
+      </c>
+      <c r="D3">
+        <v>2977.9306000000001</v>
+      </c>
+      <c r="E3">
+        <v>2606.2343000000001</v>
+      </c>
+      <c r="F3">
+        <v>2970.21</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">AVERAGE(B3:F3)</f>
+        <v>2875.4613599999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>89.558000000000007</v>
+      </c>
+      <c r="C4">
+        <v>91.929900000000004</v>
+      </c>
+      <c r="D4">
+        <v>84.614099999999993</v>
+      </c>
+      <c r="E4">
+        <v>75.519800000000004</v>
+      </c>
+      <c r="F4">
+        <v>89.307900000000004</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>86.185940000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="e">
+      <c r="B5">
+        <v>174.595</v>
+      </c>
+      <c r="C5">
+        <v>177.88310000000001</v>
+      </c>
+      <c r="D5">
+        <v>214.37459999999999</v>
+      </c>
+      <c r="E5">
+        <v>189.02119999999999</v>
+      </c>
+      <c r="F5">
+        <v>168.3553</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>184.84584000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="e">
+      <c r="B6">
+        <v>2343.5405999999998</v>
+      </c>
+      <c r="C6">
+        <v>2603.8854999999999</v>
+      </c>
+      <c r="D6">
+        <v>2376.8366000000001</v>
+      </c>
+      <c r="E6">
+        <v>2367.4661999999998</v>
+      </c>
+      <c r="F6">
+        <v>2374.6051000000002</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2413.2667999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="e">
+      <c r="B7">
+        <v>1171.3821</v>
+      </c>
+      <c r="C7">
+        <v>1080.3386</v>
+      </c>
+      <c r="D7">
+        <v>1040.0106000000001</v>
+      </c>
+      <c r="E7">
+        <v>1109.8056999999999</v>
+      </c>
+      <c r="F7">
+        <v>1282.1596999999999</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1136.7393400000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="e">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1929.1197</v>
+      </c>
+      <c r="C8">
+        <v>2334.3489</v>
+      </c>
+      <c r="D8">
+        <v>1822.6856</v>
+      </c>
+      <c r="E8">
+        <v>2220.8521000000001</v>
+      </c>
+      <c r="F8">
+        <v>2475.7447999999999</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2156.5502200000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>778.1576</v>
+      </c>
+      <c r="C9">
+        <v>668.18230000000005</v>
+      </c>
+      <c r="D9">
+        <v>731.69460000000004</v>
+      </c>
+      <c r="E9">
+        <v>727.0575</v>
+      </c>
+      <c r="F9">
+        <v>767.0548</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>734.42935999999986</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>4.8349000000000002</v>
+      </c>
+      <c r="C10">
+        <v>268.8449</v>
+      </c>
+      <c r="D10">
+        <v>168.71039999999999</v>
+      </c>
+      <c r="E10">
+        <v>171.62860000000001</v>
+      </c>
+      <c r="F10">
+        <v>166.78100000000001</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(C10:F10)</f>
+        <v>193.99122499999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="e">
-        <f>AVERAGE(B12:F12)</f>
-        <v>#DIV/0!</v>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>169.58430000000001</v>
+      </c>
+      <c r="C11">
+        <v>8.8530999999999995</v>
+      </c>
+      <c r="D11">
+        <v>8.5128000000000004</v>
+      </c>
+      <c r="E11">
+        <v>5.3251999999999997</v>
+      </c>
+      <c r="F11">
+        <v>6.6993999999999998</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(C11:F11)</f>
+        <v>7.3476249999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G13:G17" si="1">AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>124038304</v>
+      </c>
+      <c r="C15">
+        <v>122049024</v>
+      </c>
+      <c r="D15">
+        <v>122210480</v>
+      </c>
+      <c r="E15">
+        <v>122106368</v>
+      </c>
+      <c r="F15">
+        <v>122187408</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>122492131.2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>199518864</v>
+      </c>
+      <c r="C16">
+        <v>192256552</v>
+      </c>
+      <c r="D16">
+        <v>191688208</v>
+      </c>
+      <c r="E16">
+        <v>174605112</v>
+      </c>
+      <c r="F16">
+        <v>190147072</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>189643161.59999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>402655232</v>
+      </c>
+      <c r="C17">
+        <v>344674304</v>
+      </c>
+      <c r="D17">
+        <v>460691968</v>
+      </c>
+      <c r="E17">
+        <v>313980928</v>
+      </c>
+      <c r="F17">
+        <v>397156880</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>383831862.39999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>285769976</v>
+      </c>
+      <c r="C18">
+        <v>250683392</v>
+      </c>
+      <c r="D18">
+        <v>162682704</v>
+      </c>
+      <c r="E18">
+        <v>252843008</v>
+      </c>
+      <c r="F18">
+        <v>283594688</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>247114753.59999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>359223808</v>
+      </c>
+      <c r="C19">
+        <v>486591888</v>
+      </c>
+      <c r="D19">
+        <v>446816256</v>
+      </c>
+      <c r="E19">
+        <v>504687544</v>
+      </c>
+      <c r="F19">
+        <v>348613120</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>429186523.19999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>232683520</v>
+      </c>
+      <c r="C20">
+        <v>273891344</v>
+      </c>
+      <c r="D20">
+        <v>293888752</v>
+      </c>
+      <c r="E20">
+        <v>253546496</v>
+      </c>
+      <c r="F20">
+        <v>313461248</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>263502528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>308190816</v>
+      </c>
+      <c r="C21">
+        <v>336573600</v>
+      </c>
+      <c r="D21">
+        <v>259365376</v>
+      </c>
+      <c r="E21">
+        <v>242391552</v>
+      </c>
+      <c r="F21">
+        <v>316939328</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>292692134.39999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>600688813</v>
+      </c>
+      <c r="C22">
+        <v>218521400</v>
+      </c>
+      <c r="D22">
+        <v>395347797</v>
+      </c>
+      <c r="E22">
+        <v>764430620</v>
+      </c>
+      <c r="F22">
+        <v>588209664</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>513439658.80000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>470203904</v>
+      </c>
+      <c r="C23">
+        <v>265523088</v>
+      </c>
+      <c r="D23">
+        <v>373688320</v>
+      </c>
+      <c r="E23">
+        <v>439948288</v>
+      </c>
+      <c r="F23">
+        <v>455032320</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>400879184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F5DAB-15BB-42A4-8DE0-C37519849C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A1EAF1-8F11-470E-9B31-17B928851EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
     <sheet name="100" sheetId="2" r:id="rId2"/>
     <sheet name="1000" sheetId="3" r:id="rId3"/>
+    <sheet name="500" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>First</t>
   </si>
@@ -1440,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1491,10 +1492,10 @@
         <v>2606.2343000000001</v>
       </c>
       <c r="F3">
-        <v>2970.21</v>
+        <v>3204.9249</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">AVERAGE(B3:F3)</f>
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(B3:F3)</f>
         <v>2875.4613599999998</v>
       </c>
     </row>
@@ -1732,7 +1733,7 @@
         <v>122106368</v>
       </c>
       <c r="F15">
-        <v>122187408</v>
+        <v>123279920</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
@@ -1935,4 +1936,504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA80455-3A41-45C1-B849-E289F925C7BF}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2029.7012999999999</v>
+      </c>
+      <c r="C3">
+        <v>2151.8395999999998</v>
+      </c>
+      <c r="D3">
+        <v>2002.5735</v>
+      </c>
+      <c r="E3">
+        <v>2353.7462</v>
+      </c>
+      <c r="F3">
+        <v>1962.672</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(B3:F3)</f>
+        <v>2117.4803000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>85.066699999999997</v>
+      </c>
+      <c r="C4">
+        <v>44.915700000000001</v>
+      </c>
+      <c r="D4">
+        <v>54.201900000000002</v>
+      </c>
+      <c r="E4">
+        <v>35.502099999999999</v>
+      </c>
+      <c r="F4">
+        <v>59.850299999999997</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>55.907339999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>150.0993</v>
+      </c>
+      <c r="C5">
+        <v>169.31800000000001</v>
+      </c>
+      <c r="D5">
+        <v>157.7473</v>
+      </c>
+      <c r="E5">
+        <v>160.91159999999999</v>
+      </c>
+      <c r="F5">
+        <v>137.0385</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>155.02294000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1334.2298000000001</v>
+      </c>
+      <c r="C6">
+        <v>1484.0107</v>
+      </c>
+      <c r="D6">
+        <v>1568.5459000000001</v>
+      </c>
+      <c r="E6">
+        <v>1503.3515</v>
+      </c>
+      <c r="F6">
+        <v>1382.7879</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1454.5851600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>593.68529999999998</v>
+      </c>
+      <c r="C7">
+        <v>846.68910000000005</v>
+      </c>
+      <c r="D7">
+        <v>702.63630000000001</v>
+      </c>
+      <c r="E7">
+        <v>698.60140000000001</v>
+      </c>
+      <c r="F7">
+        <v>645.20989999999995</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>697.36440000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1288.806</v>
+      </c>
+      <c r="C8">
+        <v>1301.6386</v>
+      </c>
+      <c r="D8">
+        <v>1272.8966</v>
+      </c>
+      <c r="E8">
+        <v>1178.6201000000001</v>
+      </c>
+      <c r="F8">
+        <v>1282.6878999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1260.490325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>586.17939999999999</v>
+      </c>
+      <c r="C9">
+        <v>368.30689999999998</v>
+      </c>
+      <c r="D9">
+        <v>414.16980000000001</v>
+      </c>
+      <c r="E9">
+        <v>694.91330000000005</v>
+      </c>
+      <c r="F9">
+        <v>454.22879999999998</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>503.55964000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>94.975099999999998</v>
+      </c>
+      <c r="C10">
+        <v>104.2624</v>
+      </c>
+      <c r="D10">
+        <v>92.760999999999996</v>
+      </c>
+      <c r="E10">
+        <v>133.10480000000001</v>
+      </c>
+      <c r="F10">
+        <v>102.7547</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(C10:F10)</f>
+        <v>108.220725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>3.8982000000000001</v>
+      </c>
+      <c r="C11">
+        <v>4.4598000000000004</v>
+      </c>
+      <c r="D11">
+        <v>5.3939000000000004</v>
+      </c>
+      <c r="E11">
+        <v>4.8209999999999997</v>
+      </c>
+      <c r="F11">
+        <v>4.2965999999999998</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(C11:F11)</f>
+        <v>4.7428249999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>99698296</v>
+      </c>
+      <c r="C15">
+        <v>97766272</v>
+      </c>
+      <c r="D15">
+        <v>99913256</v>
+      </c>
+      <c r="E15">
+        <v>99686960</v>
+      </c>
+      <c r="F15">
+        <v>99740968</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>99339467.200000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>96889800</v>
+      </c>
+      <c r="C16">
+        <v>97075296</v>
+      </c>
+      <c r="D16">
+        <v>118942856</v>
+      </c>
+      <c r="E16">
+        <v>114014592</v>
+      </c>
+      <c r="F16">
+        <v>108640768</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>107112662.40000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>266340352</v>
+      </c>
+      <c r="C17">
+        <v>235757000</v>
+      </c>
+      <c r="D17">
+        <v>312193024</v>
+      </c>
+      <c r="E17">
+        <v>178107000</v>
+      </c>
+      <c r="F17">
+        <v>171491848</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>232777844.80000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>119218168</v>
+      </c>
+      <c r="C18">
+        <v>145033768</v>
+      </c>
+      <c r="D18">
+        <v>121619776</v>
+      </c>
+      <c r="E18">
+        <v>120450968</v>
+      </c>
+      <c r="F18">
+        <v>179084824</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>137081500.80000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>298356224</v>
+      </c>
+      <c r="C19">
+        <v>210810184</v>
+      </c>
+      <c r="D19">
+        <v>274539760</v>
+      </c>
+      <c r="E19">
+        <v>273314720</v>
+      </c>
+      <c r="F19">
+        <v>202961672</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>251996512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>131800784</v>
+      </c>
+      <c r="C20">
+        <v>174601864</v>
+      </c>
+      <c r="D20">
+        <v>146269632</v>
+      </c>
+      <c r="E20">
+        <v>124844584</v>
+      </c>
+      <c r="F20">
+        <v>141855552</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(B20:F20)</f>
+        <v>144379216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>155244808</v>
+      </c>
+      <c r="C21">
+        <v>266349248</v>
+      </c>
+      <c r="D21">
+        <v>167491584</v>
+      </c>
+      <c r="E21">
+        <v>131426224</v>
+      </c>
+      <c r="F21">
+        <v>191881520</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>182478676.80000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>270241040</v>
+      </c>
+      <c r="C22">
+        <v>277902746</v>
+      </c>
+      <c r="D22">
+        <v>304981162</v>
+      </c>
+      <c r="E22">
+        <v>209238336</v>
+      </c>
+      <c r="F22">
+        <v>332118869</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>278896430.60000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>286205584</v>
+      </c>
+      <c r="C23">
+        <v>264552712</v>
+      </c>
+      <c r="D23">
+        <v>336786944</v>
+      </c>
+      <c r="E23">
+        <v>232592832</v>
+      </c>
+      <c r="F23">
+        <v>363225600</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>296672734.39999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15112DEB-198E-4BD2-BACF-9AE17AE52A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21441A7-8E41-415B-9495-9F90B5E8D667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
     <sheet name="100" sheetId="2" r:id="rId2"/>
     <sheet name="1000" sheetId="3" r:id="rId3"/>
+    <sheet name="500" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>First</t>
   </si>
@@ -1441,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1935,4 +1936,505 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D34323-2B92-4BA7-A8C2-15F06DFD2E86}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.06640625" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2186.2849000000001</v>
+      </c>
+      <c r="C3">
+        <v>2100.212</v>
+      </c>
+      <c r="D3">
+        <v>2424.7959000000001</v>
+      </c>
+      <c r="E3">
+        <v>2198.0626999999999</v>
+      </c>
+      <c r="F3">
+        <v>2114.0729999999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">AVERAGE(B3:F3)</f>
+        <v>2186.4927799999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>45.118400000000001</v>
+      </c>
+      <c r="C4">
+        <v>30.301500000000001</v>
+      </c>
+      <c r="D4">
+        <v>57.796199999999999</v>
+      </c>
+      <c r="E4">
+        <v>65.941699999999997</v>
+      </c>
+      <c r="F4">
+        <v>51.210299999999997</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>50.073619999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>129.11500000000001</v>
+      </c>
+      <c r="C5">
+        <v>142.77420000000001</v>
+      </c>
+      <c r="D5">
+        <v>119.9024</v>
+      </c>
+      <c r="E5">
+        <v>198.5204</v>
+      </c>
+      <c r="F5">
+        <v>160.4735</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>150.15709999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1502.8646000000001</v>
+      </c>
+      <c r="C6">
+        <v>1503.7583999999999</v>
+      </c>
+      <c r="D6">
+        <v>1427.0951</v>
+      </c>
+      <c r="E6">
+        <v>1603.7998</v>
+      </c>
+      <c r="F6">
+        <v>1427.5840000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1493.0203799999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>577.02520000000004</v>
+      </c>
+      <c r="C7">
+        <v>722.25170000000003</v>
+      </c>
+      <c r="D7">
+        <v>629.21929999999998</v>
+      </c>
+      <c r="E7">
+        <v>661.75310000000002</v>
+      </c>
+      <c r="F7">
+        <v>878.76099999999997</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>693.80205999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1262.6782000000001</v>
+      </c>
+      <c r="C8">
+        <v>1474.9402</v>
+      </c>
+      <c r="D8">
+        <v>1277.6602</v>
+      </c>
+      <c r="E8">
+        <v>1206.7843</v>
+      </c>
+      <c r="F8">
+        <v>1147.9801</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(B8:F8)</f>
+        <v>1305.5157250000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>418.40030000000002</v>
+      </c>
+      <c r="C9">
+        <v>394.49590000000001</v>
+      </c>
+      <c r="D9">
+        <v>473.52510000000001</v>
+      </c>
+      <c r="E9">
+        <v>559.0104</v>
+      </c>
+      <c r="F9">
+        <v>505.46069999999997</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>470.17848000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>86.563000000000002</v>
+      </c>
+      <c r="C10">
+        <v>85.301000000000002</v>
+      </c>
+      <c r="D10">
+        <v>86.310400000000001</v>
+      </c>
+      <c r="E10">
+        <v>104.11360000000001</v>
+      </c>
+      <c r="F10">
+        <v>91.067800000000005</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>90.671160000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>3.8586</v>
+      </c>
+      <c r="C11">
+        <v>3.8559000000000001</v>
+      </c>
+      <c r="D11">
+        <v>7.5381999999999998</v>
+      </c>
+      <c r="E11">
+        <v>7.6855000000000002</v>
+      </c>
+      <c r="F11">
+        <v>13.8994</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>7.3675200000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>99995360</v>
+      </c>
+      <c r="C15">
+        <v>97935360</v>
+      </c>
+      <c r="D15">
+        <v>95867992</v>
+      </c>
+      <c r="E15">
+        <v>100800560</v>
+      </c>
+      <c r="F15">
+        <v>99987256</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>98892260.799999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>105198144</v>
+      </c>
+      <c r="C16">
+        <v>105578336</v>
+      </c>
+      <c r="D16">
+        <v>114749496</v>
+      </c>
+      <c r="E16">
+        <v>109608072</v>
+      </c>
+      <c r="F16">
+        <v>113263976</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>109679604.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>201008640</v>
+      </c>
+      <c r="C17">
+        <v>186344448</v>
+      </c>
+      <c r="D17">
+        <v>205292032</v>
+      </c>
+      <c r="E17">
+        <v>157656064</v>
+      </c>
+      <c r="F17">
+        <v>174336000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>184927436.80000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>165432448</v>
+      </c>
+      <c r="C18">
+        <v>165226496</v>
+      </c>
+      <c r="D18">
+        <v>144294064</v>
+      </c>
+      <c r="E18">
+        <v>116985184</v>
+      </c>
+      <c r="F18">
+        <v>69278632</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>132243364.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>268750720</v>
+      </c>
+      <c r="C19">
+        <v>358380928</v>
+      </c>
+      <c r="D19">
+        <v>239392048</v>
+      </c>
+      <c r="E19">
+        <v>193158888</v>
+      </c>
+      <c r="F19">
+        <v>229284520</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>257793420.80000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>148185048</v>
+      </c>
+      <c r="C20">
+        <v>145641744</v>
+      </c>
+      <c r="D20">
+        <v>130353304</v>
+      </c>
+      <c r="E20">
+        <v>157307000</v>
+      </c>
+      <c r="F20">
+        <v>146489592</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(B20:F20)</f>
+        <v>145371774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>198127104</v>
+      </c>
+      <c r="C21">
+        <v>138968768</v>
+      </c>
+      <c r="D21">
+        <v>251800576</v>
+      </c>
+      <c r="E21">
+        <v>158878608</v>
+      </c>
+      <c r="F21">
+        <v>208943488</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>191343708.80000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>268110289</v>
+      </c>
+      <c r="C22">
+        <v>311449258</v>
+      </c>
+      <c r="D22">
+        <v>294856192</v>
+      </c>
+      <c r="E22">
+        <v>259475280</v>
+      </c>
+      <c r="F22">
+        <v>287011672</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>284180538.19999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>195524696</v>
+      </c>
+      <c r="C23">
+        <v>343328632</v>
+      </c>
+      <c r="D23">
+        <v>325615104</v>
+      </c>
+      <c r="E23">
+        <v>290752424</v>
+      </c>
+      <c r="F23">
+        <v>318468608</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>294737892.80000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F850ED65-C179-4635-9E9A-D040FFF20E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19EDAF0-B777-4522-9605-02DE20AE7BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
     <sheet name="100" sheetId="2" r:id="rId2"/>
     <sheet name="1000" sheetId="3" r:id="rId3"/>
+    <sheet name="500" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>First</t>
   </si>
@@ -1441,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1935,4 +1936,504 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F454B2F2-7EF6-4B87-ABE0-F408D44CD635}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2161.6060000000002</v>
+      </c>
+      <c r="C3">
+        <v>2232.9322000000002</v>
+      </c>
+      <c r="D3">
+        <v>1913.3314</v>
+      </c>
+      <c r="E3">
+        <v>2111.2060000000001</v>
+      </c>
+      <c r="F3">
+        <v>1975.5449000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">AVERAGE(B3:F3)</f>
+        <v>2096.31648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>56.267699999999998</v>
+      </c>
+      <c r="C4">
+        <v>51.945</v>
+      </c>
+      <c r="D4">
+        <v>50.853099999999998</v>
+      </c>
+      <c r="E4">
+        <v>35.432299999999998</v>
+      </c>
+      <c r="F4">
+        <v>72.858800000000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>53.471379999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3253.7999</v>
+      </c>
+      <c r="C5">
+        <v>3230.6215999999999</v>
+      </c>
+      <c r="D5">
+        <v>3186.6732999999999</v>
+      </c>
+      <c r="E5">
+        <v>3189.8274000000001</v>
+      </c>
+      <c r="F5">
+        <v>3199.2835</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3212.0411400000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1556.1361999999999</v>
+      </c>
+      <c r="C6">
+        <v>1357.5391</v>
+      </c>
+      <c r="D6">
+        <v>1512.7737999999999</v>
+      </c>
+      <c r="E6">
+        <v>1313.164</v>
+      </c>
+      <c r="F6">
+        <v>1665.6228000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1481.04718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3719.2719000000002</v>
+      </c>
+      <c r="C7">
+        <v>3830.6381999999999</v>
+      </c>
+      <c r="D7">
+        <v>3718.3836000000001</v>
+      </c>
+      <c r="E7">
+        <v>3742.9893000000002</v>
+      </c>
+      <c r="F7">
+        <v>3826.4261999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3767.5418399999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1501.7979</v>
+      </c>
+      <c r="C8">
+        <v>1351.8131000000001</v>
+      </c>
+      <c r="D8">
+        <v>1741.9616000000001</v>
+      </c>
+      <c r="E8">
+        <v>1816.2769000000001</v>
+      </c>
+      <c r="F8">
+        <v>1623.4081000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1602.9623749999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>604.3252</v>
+      </c>
+      <c r="C9">
+        <v>543.59860000000003</v>
+      </c>
+      <c r="D9">
+        <v>545.49620000000004</v>
+      </c>
+      <c r="E9">
+        <v>552.80889999999999</v>
+      </c>
+      <c r="F9">
+        <v>571.91229999999996</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>563.62824000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>100.2894</v>
+      </c>
+      <c r="C10">
+        <v>98.127799999999993</v>
+      </c>
+      <c r="D10">
+        <v>102.9474</v>
+      </c>
+      <c r="E10">
+        <v>95.554400000000001</v>
+      </c>
+      <c r="F10">
+        <v>91.767499999999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>97.737299999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>6.7710999999999997</v>
+      </c>
+      <c r="C11">
+        <v>4.9779999999999998</v>
+      </c>
+      <c r="D11">
+        <v>4.9671000000000003</v>
+      </c>
+      <c r="E11">
+        <v>5.5168999999999997</v>
+      </c>
+      <c r="F11">
+        <v>4.9257</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>5.4317599999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>99571600</v>
+      </c>
+      <c r="C15">
+        <v>99450288</v>
+      </c>
+      <c r="D15">
+        <v>99705696</v>
+      </c>
+      <c r="E15">
+        <v>99495272</v>
+      </c>
+      <c r="F15">
+        <v>99607016</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>99644720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>100050360</v>
+      </c>
+      <c r="C16">
+        <v>100996080</v>
+      </c>
+      <c r="D16">
+        <v>105733512</v>
+      </c>
+      <c r="E16">
+        <v>172208480</v>
+      </c>
+      <c r="F16">
+        <v>111052432</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>118008172.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>203229896</v>
+      </c>
+      <c r="C17">
+        <v>215471520</v>
+      </c>
+      <c r="D17">
+        <v>165481472</v>
+      </c>
+      <c r="E17">
+        <v>233613160</v>
+      </c>
+      <c r="F17">
+        <v>196949504</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>202949110.40000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>168488688</v>
+      </c>
+      <c r="C18">
+        <v>121559712</v>
+      </c>
+      <c r="D18">
+        <v>137107024</v>
+      </c>
+      <c r="E18">
+        <v>230966272</v>
+      </c>
+      <c r="F18">
+        <v>182046800</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>168033699.19999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>203075880</v>
+      </c>
+      <c r="C19">
+        <v>262644064</v>
+      </c>
+      <c r="D19">
+        <v>326987688</v>
+      </c>
+      <c r="E19">
+        <v>259735328</v>
+      </c>
+      <c r="F19">
+        <v>377304576</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>285949507.19999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>144243888</v>
+      </c>
+      <c r="C20">
+        <v>147400304</v>
+      </c>
+      <c r="D20">
+        <v>129039416</v>
+      </c>
+      <c r="E20">
+        <v>133769672</v>
+      </c>
+      <c r="F20">
+        <v>144066304</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>138613320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>166036480</v>
+      </c>
+      <c r="C21">
+        <v>245493248</v>
+      </c>
+      <c r="D21">
+        <v>258935104</v>
+      </c>
+      <c r="E21">
+        <v>262158336</v>
+      </c>
+      <c r="F21">
+        <v>154677928</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>217460219.19999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>263256237</v>
+      </c>
+      <c r="C22">
+        <v>275047404</v>
+      </c>
+      <c r="D22">
+        <v>338073773</v>
+      </c>
+      <c r="E22">
+        <v>338016597</v>
+      </c>
+      <c r="F22">
+        <v>337481074</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>310375017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>296641096</v>
+      </c>
+      <c r="C23">
+        <v>278327592</v>
+      </c>
+      <c r="D23">
+        <v>370227712</v>
+      </c>
+      <c r="E23">
+        <v>351158272</v>
+      </c>
+      <c r="F23">
+        <v>363844096</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>332039753.60000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\loCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB3CC7-E625-4F80-9B52-48671D6AF9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DD2D0-3001-4D4D-B9E8-78338E10A770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{A6D4DD5A-4642-4146-9CF1-87147E748D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
     <sheet name="100" sheetId="2" r:id="rId2"/>
     <sheet name="1000" sheetId="3" r:id="rId3"/>
+    <sheet name="500" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>First</t>
   </si>
@@ -1441,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866543AA-C5E3-4D95-AD05-1451F0DDEC40}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1935,4 +1936,504 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70E8E23-75E5-41C7-B73F-3CB30BB30470}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1076.1829</v>
+      </c>
+      <c r="C3">
+        <v>1223.1374000000001</v>
+      </c>
+      <c r="D3">
+        <v>1389.4564</v>
+      </c>
+      <c r="E3">
+        <v>1200.7384</v>
+      </c>
+      <c r="F3">
+        <v>1185.1087</v>
+      </c>
+      <c r="G3" t="e">
+        <f>AVERAGE(B3:F3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>35.226900000000001</v>
+      </c>
+      <c r="C4">
+        <v>62.598300000000002</v>
+      </c>
+      <c r="D4">
+        <v>36.280299999999997</v>
+      </c>
+      <c r="E4">
+        <v>24.624500000000001</v>
+      </c>
+      <c r="F4">
+        <v>41.788699999999999</v>
+      </c>
+      <c r="G4" t="e">
+        <f>AVERAGE(B4:F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>96.491</v>
+      </c>
+      <c r="C5">
+        <v>71.536699999999996</v>
+      </c>
+      <c r="D5">
+        <v>67.449299999999994</v>
+      </c>
+      <c r="E5">
+        <v>73.366699999999994</v>
+      </c>
+      <c r="F5">
+        <v>82.386499999999998</v>
+      </c>
+      <c r="G5" t="e">
+        <f>AVERAGE(B5:F5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>688.1653</v>
+      </c>
+      <c r="C6">
+        <v>933.94200000000001</v>
+      </c>
+      <c r="D6">
+        <v>1006.4709</v>
+      </c>
+      <c r="E6">
+        <v>731.28390000000002</v>
+      </c>
+      <c r="F6">
+        <v>892.02760000000001</v>
+      </c>
+      <c r="G6" t="e">
+        <f>AVERAGE(B6:F6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>956.35720000000003</v>
+      </c>
+      <c r="C7">
+        <v>400.27940000000001</v>
+      </c>
+      <c r="D7">
+        <v>354.93380000000002</v>
+      </c>
+      <c r="E7">
+        <v>471.92140000000001</v>
+      </c>
+      <c r="F7">
+        <v>368.26639999999998</v>
+      </c>
+      <c r="G7" t="e">
+        <f>AVERAGE(B7:F7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>740.31309999999996</v>
+      </c>
+      <c r="C8">
+        <v>935.56110000000001</v>
+      </c>
+      <c r="D8">
+        <v>990.2731</v>
+      </c>
+      <c r="E8">
+        <v>939.75649999999996</v>
+      </c>
+      <c r="F8">
+        <v>928.45830000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="0">AVERAGE(B8:F8)</f>
+        <v>901.47595000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>362.13889999999998</v>
+      </c>
+      <c r="C9">
+        <v>226.29499999999999</v>
+      </c>
+      <c r="D9">
+        <v>174.96729999999999</v>
+      </c>
+      <c r="E9">
+        <v>353.5598</v>
+      </c>
+      <c r="F9">
+        <v>283.57100000000003</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>280.10640000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>49.2729</v>
+      </c>
+      <c r="C10">
+        <v>49.551000000000002</v>
+      </c>
+      <c r="D10">
+        <v>48.793799999999997</v>
+      </c>
+      <c r="E10">
+        <v>62.7943</v>
+      </c>
+      <c r="F10">
+        <v>64.333200000000005</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(B10:F10)</f>
+        <v>54.949040000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>3.2486000000000002</v>
+      </c>
+      <c r="C11">
+        <v>2.0474000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.4755</v>
+      </c>
+      <c r="E11">
+        <v>1.3313999999999999</v>
+      </c>
+      <c r="F11">
+        <v>6.7519</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.9709600000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>100276288</v>
+      </c>
+      <c r="C15">
+        <v>99285944</v>
+      </c>
+      <c r="D15">
+        <v>99680080</v>
+      </c>
+      <c r="E15">
+        <v>99654272</v>
+      </c>
+      <c r="F15">
+        <v>99297728</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="1">AVERAGE(B15:F15)</f>
+        <v>99638862.400000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>114708656</v>
+      </c>
+      <c r="C16">
+        <v>125829120</v>
+      </c>
+      <c r="D16">
+        <v>104930936</v>
+      </c>
+      <c r="E16">
+        <v>113685504</v>
+      </c>
+      <c r="F16">
+        <v>110032960</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>113837435.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>166918024</v>
+      </c>
+      <c r="C17">
+        <v>226141088</v>
+      </c>
+      <c r="D17">
+        <v>177752624</v>
+      </c>
+      <c r="E17">
+        <v>211321344</v>
+      </c>
+      <c r="F17">
+        <v>222953368</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>201017289.59999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>168351080</v>
+      </c>
+      <c r="C18">
+        <v>145338960</v>
+      </c>
+      <c r="D18">
+        <v>149139568</v>
+      </c>
+      <c r="E18">
+        <v>121408552</v>
+      </c>
+      <c r="F18">
+        <v>126269920</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>142101616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>144459136</v>
+      </c>
+      <c r="C19">
+        <v>188600696</v>
+      </c>
+      <c r="D19">
+        <v>284025552</v>
+      </c>
+      <c r="E19">
+        <v>341261296</v>
+      </c>
+      <c r="F19">
+        <v>273251880</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>246319712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>157649568</v>
+      </c>
+      <c r="C20">
+        <v>144918152</v>
+      </c>
+      <c r="D20">
+        <v>144568664</v>
+      </c>
+      <c r="E20">
+        <v>139516808</v>
+      </c>
+      <c r="F20">
+        <v>142692560</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>145869150.40000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>135893584</v>
+      </c>
+      <c r="C21">
+        <v>196727296</v>
+      </c>
+      <c r="D21">
+        <v>129074424</v>
+      </c>
+      <c r="E21">
+        <v>162771248</v>
+      </c>
+      <c r="F21">
+        <v>193797120</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B21:F21)</f>
+        <v>163652734.40000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>171762320</v>
+      </c>
+      <c r="C22">
+        <v>455132162</v>
+      </c>
+      <c r="D22">
+        <v>305800062</v>
+      </c>
+      <c r="E22">
+        <v>209543292</v>
+      </c>
+      <c r="F22">
+        <v>306263893</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(C22:F22)</f>
+        <v>319184852.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>217084509</v>
+      </c>
+      <c r="C23">
+        <v>485538816</v>
+      </c>
+      <c r="D23">
+        <v>250861088</v>
+      </c>
+      <c r="E23">
+        <v>127167968</v>
+      </c>
+      <c r="F23">
+        <v>337387152</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(C23:F23)</f>
+        <v>300238756</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>